--- a/scraped_data_test.xlsx
+++ b/scraped_data_test.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>One</t>
+    <t>OneOneOneOne</t>
   </si>
   <si>
     <t>Two</t>
@@ -58,8 +58,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +432,7 @@
       </c>
     </row>
     <row r="5" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
     </row>

--- a/scraped_data_test.xlsx
+++ b/scraped_data_test.xlsx
@@ -406,7 +406,7 @@
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
-  <sheetFormatPr defaultRowHeight="50" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="10" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="50" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="18" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>

--- a/scraped_data_test.xlsx
+++ b/scraped_data_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>OneOneOneOne</t>
   </si>
@@ -405,7 +405,7 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E5"/>
   <sheetFormatPr defaultRowHeight="50" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="18" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -431,9 +431,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" ht="70" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
